--- a/Filtered_AbnormalEntries.xlsx
+++ b/Filtered_AbnormalEntries.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,40 +535,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45160</v>
+        <v>45174</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:25:00</t>
+          <t>04:15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fair Value Adjustments</t>
+          <t>Suspense Accounts</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2739.6</v>
+        <v>5839.88</v>
       </c>
       <c r="F3" t="n">
-        <v>2739.6</v>
+        <v>5839.88</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Suspense account reconciliation</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>User_29</t>
+          <t>User_2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,26 +579,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45174</v>
+        <v>45049</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>04:15:00</t>
+          <t>14:05:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Suspense Accounts</t>
+          <t>Sales Revenue</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5839.88</v>
+        <v>5337.41</v>
       </c>
       <c r="F4" t="n">
-        <v>5839.88</v>
+        <v>5337.41</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -607,12 +607,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>User_2</t>
+          <t>User_41</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -623,26 +623,26 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45049</v>
+        <v>45028</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:05:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sales Revenue</t>
+          <t>Manual Journal Adjustments</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5337.41</v>
+        <v>8140.37</v>
       </c>
       <c r="F5" t="n">
-        <v>5337.41</v>
+        <v>8140.37</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -651,12 +651,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>User_41</t>
+          <t>User_44</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Senior Accountant</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -667,661 +667,133 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45213</v>
+        <v>45071</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>03:37:00</t>
+          <t>03:48:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Year-End Adjustments</t>
+          <t>Gains/Losses on Disposal of Assets</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1702.36</v>
+        <v>8425.049999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>1702.36</v>
+        <v>8425.049999999999</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Suspense account reconciliation</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>User_37</t>
+          <t>User_33</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Unauthorized</t>
+          <t>Authorized</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45001</v>
+        <v>45092</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:29:00</t>
+          <t>00:33:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Reserves</t>
+          <t>Prepaid Expenses</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4196.21</v>
+        <v>7528.55</v>
       </c>
       <c r="F7" t="n">
-        <v>4196.21</v>
+        <v>7528.55</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Suspense account reconciliation</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>User_16</t>
+          <t>User_9</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Finance Manager</t>
+          <t>Junior Accountant</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Authorized</t>
+          <t>Unauthorized</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44963</v>
+        <v>45230</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01:53:00</t>
+          <t>08:55:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Intercompany Accounts</t>
+          <t>Suspense Accounts</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8073.58</v>
+        <v>3313.31</v>
       </c>
       <c r="F8" t="n">
-        <v>8073.58</v>
+        <v>3313.31</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Manual adjustment to accounts receivable</t>
+          <t>Suspense account reconciliation</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>User_46</t>
+          <t>User_39</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Senior Accountant</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>44997</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>19:01:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Sales Revenue</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>4335.42</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4335.42</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Manual adjustment to accounts receivable</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>User_37</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>CFO</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>52</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45016</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>02:38:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Repairs &amp; Maintenance</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>2681.92</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2681.92</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Manual adjustment to accounts receivable</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>User_16</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>58</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>45028</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>09:30:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Manual Journal Adjustments</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>8140.37</v>
-      </c>
-      <c r="F11" t="n">
-        <v>8140.37</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Suspense account reconciliation</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>User_44</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Junior Accountant</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>73</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>45071</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>03:48:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Gains/Losses on Disposal of Assets</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>8425.049999999999</v>
-      </c>
-      <c r="F12" t="n">
-        <v>8425.049999999999</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Suspense account reconciliation</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>User_33</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Junior Accountant</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>79</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>45181</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>13:33:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Retained Earnings</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>9278.120000000001</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9278.120000000001</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Manual adjustment to accounts receivable</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>User_34</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
           <t>Unauthorized</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>82</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>45028</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>11:02:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Top-side Entries</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>1214.03</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1214.03</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Manual adjustment to accounts receivable</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>User_43</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Finance Manager</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>85</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>45092</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>00:33:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Prepaid Expenses</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>7528.55</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7528.55</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Suspense account reconciliation</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>User_9</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Junior Accountant</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Unauthorized</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>104</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>01:02:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Intercompany Accounts</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>6564.8</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6564.8</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Manual adjustment to accounts receivable</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>User_45</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Junior Accountant</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>122</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>45161</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>01:19:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Prepaid Expenses</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>6316.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6316.7</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Manual adjustment to accounts receivable</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>User_34</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>CFO</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>174</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>08:55:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Suspense Accounts</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>3313.31</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3313.31</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Suspense account reconciliation</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>User_39</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Unauthorized</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>179</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>08:10:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Accrued Expenses</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>7318.28</v>
-      </c>
-      <c r="F19" t="n">
-        <v>7318.28</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Manual adjustment to accounts receivable</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>User_5</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Senior Accountant</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>200</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>45213</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10:38:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Year-End Adjustments</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>2949.07</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2949.07</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Manual adjustment to accounts receivable</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>User_13</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>CFO</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Authorized</t>
         </is>
       </c>
     </row>
